--- a/CW1/Results1024Lab.xlsx
+++ b/CW1/Results1024Lab.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40168766\Documents\GitHub\ConcurrentAndParallelSystems\CW1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Kevin1024Lab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="10">
   <si>
     <t>Image Dimensions (px)</t>
   </si>
@@ -42,11 +47,14 @@
   <si>
     <t>Average:</t>
   </si>
+  <si>
+    <t>Fixed Parallel For</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,6 +602,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -641,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q148"/>
+  <dimension ref="B1:W148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148:D148"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B135" activeCellId="1" sqref="B147:E147 B135:E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +919,15 @@
     <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
@@ -921,8 +937,11 @@
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,8 +978,20 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1339,8 +1370,20 @@
       <c r="Q12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>3852</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1362,8 +1405,15 @@
         <f>AVERAGE(P3:P12)</f>
         <v>3652.7</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="1">
+        <f>AVERAGE(V3:V12)</f>
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1742,8 +1792,20 @@
       <c r="Q24" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>3696</v>
+      </c>
+      <c r="W24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1765,8 +1827,15 @@
         <f>AVERAGE(P15:P24)</f>
         <v>3557.4</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="1">
+        <f>AVERAGE(V15:V24)</f>
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +1873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +2025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,8 +2214,20 @@
       <c r="Q36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>4353</v>
+      </c>
+      <c r="W36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
@@ -2168,8 +2249,15 @@
         <f>AVERAGE(P27:P36)</f>
         <v>4279.7</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" s="1">
+        <f>AVERAGE(V27:V36)</f>
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
@@ -2179,8 +2267,11 @@
       <c r="O39" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2294,7 +2385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2559,8 +2650,20 @@
       <c r="Q49" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>16</v>
+      </c>
+      <c r="V49">
+        <v>14769</v>
+      </c>
+      <c r="W49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
@@ -2582,8 +2685,15 @@
         <f>AVERAGE(P40:P49)</f>
         <v>14532.8</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V50" s="1">
+        <f>AVERAGE(V40:V49)</f>
+        <v>14769</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2659,7 +2769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2697,7 +2807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +2921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2887,7 +2997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +3035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2962,8 +3072,20 @@
       <c r="Q61" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>16</v>
+      </c>
+      <c r="V61">
+        <v>14317</v>
+      </c>
+      <c r="W61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
@@ -2985,8 +3107,15 @@
         <f>AVERAGE(P52:P61)</f>
         <v>14356.7</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="1">
+        <f>AVERAGE(V52:V61)</f>
+        <v>14317</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
@@ -3024,7 +3153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
@@ -3062,7 +3191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
@@ -3100,7 +3229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
@@ -3138,7 +3267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
@@ -3214,7 +3343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
@@ -3252,7 +3381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
@@ -3290,7 +3419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
@@ -3328,7 +3457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
@@ -3365,8 +3494,20 @@
       <c r="Q73" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <v>16</v>
+      </c>
+      <c r="V73">
+        <v>17302</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3388,8 +3529,15 @@
         <f>AVERAGE(P64:P73)</f>
         <v>17189.7</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V74" s="1">
+        <f>AVERAGE(V64:V73)</f>
+        <v>17302</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3399,8 +3547,11 @@
       <c r="O76" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U76" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
@@ -3514,7 +3665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
@@ -3552,7 +3703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3590,7 +3741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
@@ -3628,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +3855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
@@ -3742,7 +3893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
@@ -3779,8 +3930,20 @@
       <c r="Q86" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T86" t="s">
+        <v>4</v>
+      </c>
+      <c r="U86">
+        <v>64</v>
+      </c>
+      <c r="V86">
+        <v>59829</v>
+      </c>
+      <c r="W86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
@@ -3802,8 +3965,15 @@
         <f>AVERAGE(P77:P86)</f>
         <v>57514.1</v>
       </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" s="1">
+        <f>AVERAGE(V77:V86)</f>
+        <v>59829</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
@@ -3841,7 +4011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
@@ -3879,7 +4049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
@@ -3917,7 +4087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
@@ -3955,7 +4125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
@@ -3993,7 +4163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
@@ -4107,7 +4277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
@@ -4145,7 +4315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
@@ -4182,8 +4352,20 @@
       <c r="Q98" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T98" t="s">
+        <v>4</v>
+      </c>
+      <c r="U98">
+        <v>64</v>
+      </c>
+      <c r="V98">
+        <v>58186</v>
+      </c>
+      <c r="W98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
@@ -4205,8 +4387,15 @@
         <f>AVERAGE(P89:P98)</f>
         <v>56290.5</v>
       </c>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V99" s="1">
+        <f>AVERAGE(V89:V98)</f>
+        <v>58186</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
@@ -4244,7 +4433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
@@ -4282,7 +4471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
@@ -4320,7 +4509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
@@ -4358,7 +4547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
@@ -4396,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +4623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +4661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
@@ -4585,8 +4774,20 @@
       <c r="Q110" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T110" t="s">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>64</v>
+      </c>
+      <c r="V110">
+        <v>69409</v>
+      </c>
+      <c r="W110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
@@ -4608,8 +4809,15 @@
         <f>AVERAGE(P101:P110)</f>
         <v>67790.2</v>
       </c>
-    </row>
-    <row r="113" spans="2:17" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V111" s="1">
+        <f>AVERAGE(V101:V110)</f>
+        <v>69409</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C113" s="3" t="s">
         <v>5</v>
       </c>
@@ -4619,8 +4827,11 @@
       <c r="O113" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U113" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
@@ -4658,7 +4869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +4945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
@@ -4772,7 +4983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
@@ -4810,7 +5021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +5059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
@@ -4886,7 +5097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
@@ -4924,7 +5135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
@@ -4962,7 +5173,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1">
+        <v>256</v>
+      </c>
+      <c r="D123" s="1">
+        <v>789977</v>
+      </c>
+      <c r="E123" s="1">
+        <v>9</v>
+      </c>
       <c r="H123" s="1" t="s">
         <v>4</v>
       </c>
@@ -4987,14 +5210,26 @@
       <c r="Q123" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T123" t="s">
+        <v>4</v>
+      </c>
+      <c r="U123">
+        <v>256</v>
+      </c>
+      <c r="V123">
+        <v>236437</v>
+      </c>
+      <c r="W123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="1">
         <f>AVERAGE(D114:D123)</f>
-        <v>794116.77777777775</v>
+        <v>793702.8</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>8</v>
@@ -5010,12 +5245,19 @@
         <f>AVERAGE(P114:P123)</f>
         <v>229915.2</v>
       </c>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V124" s="1">
+        <f>AVERAGE(V114:V123)</f>
+        <v>236437</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I125" s="2"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H126" s="1" t="s">
         <v>4</v>
       </c>
@@ -5041,7 +5283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H127" s="1" t="s">
         <v>4</v>
       </c>
@@ -5067,7 +5309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H128" s="1" t="s">
         <v>4</v>
       </c>
@@ -5093,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H129" s="1" t="s">
         <v>4</v>
       </c>
@@ -5119,7 +5361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H130" s="1" t="s">
         <v>4</v>
       </c>
@@ -5145,7 +5387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H131" s="1" t="s">
         <v>4</v>
       </c>
@@ -5171,7 +5413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H132" s="1" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H133" s="1" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H134" s="1" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5491,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1">
+        <v>256</v>
+      </c>
+      <c r="D135" s="1">
+        <v>799601</v>
+      </c>
+      <c r="E135" s="1">
+        <v>12</v>
+      </c>
       <c r="H135" s="1" t="s">
         <v>4</v>
       </c>
@@ -5274,14 +5528,26 @@
       <c r="Q135" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="T135" t="s">
+        <v>4</v>
+      </c>
+      <c r="U135">
+        <v>256</v>
+      </c>
+      <c r="V135">
+        <v>231035</v>
+      </c>
+      <c r="W135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="1" t="e">
+      <c r="D136" s="1">
         <f>AVERAGE(D126:D135)</f>
-        <v>#DIV/0!</v>
+        <v>799601</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>8</v>
@@ -5297,12 +5563,19 @@
         <f>AVERAGE(P126:P135)</f>
         <v>224946.6</v>
       </c>
-    </row>
-    <row r="137" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="U136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V136" s="1">
+        <f>AVERAGE(V126:V135)</f>
+        <v>231035</v>
+      </c>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I137" s="2"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H138" s="1" t="s">
         <v>4</v>
       </c>
@@ -5328,7 +5601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H139" s="1" t="s">
         <v>4</v>
       </c>
@@ -5354,7 +5627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H140" s="1" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H141" s="1" t="s">
         <v>4</v>
       </c>
@@ -5406,7 +5679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H142" s="1" t="s">
         <v>4</v>
       </c>
@@ -5432,7 +5705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H143" s="1" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H144" s="1" t="s">
         <v>4</v>
       </c>
@@ -5484,7 +5757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H145" s="1" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H146" s="1" t="s">
         <v>4</v>
       </c>
@@ -5536,7 +5809,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>256</v>
+      </c>
+      <c r="D147" s="1">
+        <v>999672</v>
+      </c>
+      <c r="E147" s="1">
+        <v>15</v>
+      </c>
       <c r="H147" s="1" t="s">
         <v>4</v>
       </c>
@@ -5561,14 +5846,26 @@
       <c r="Q147" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="T147" t="s">
+        <v>4</v>
+      </c>
+      <c r="U147">
+        <v>256</v>
+      </c>
+      <c r="V147">
+        <v>275993</v>
+      </c>
+      <c r="W147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="1" t="e">
+      <c r="D148" s="1">
         <f>AVERAGE(D138:D147)</f>
-        <v>#DIV/0!</v>
+        <v>999672</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>8</v>
@@ -5583,6 +5880,13 @@
       <c r="P148" s="1">
         <f>AVERAGE(P138:P147)</f>
         <v>271312.3</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V148" s="1">
+        <f>AVERAGE(V138:V147)</f>
+        <v>275993</v>
       </c>
     </row>
   </sheetData>

--- a/CW1/Results1024Lab.xlsx
+++ b/CW1/Results1024Lab.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B135" activeCellId="1" sqref="B147:E147 B135:E135"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
